--- a/data/raw/coletando_moléculas2024.xlsx
+++ b/data/raw/coletando_moléculas2024.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EED4A5E-8730-4529-BF39-69C55723E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9DE1D5-5B6E-4990-8B8F-31722A626940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,25 +74,313 @@
     <t>pontos de atenção</t>
   </si>
   <si>
+    <t>Isobutane </t>
+  </si>
+  <si>
+    <t>C4H10</t>
+  </si>
+  <si>
+    <t>B3LYP/aug-cc-pVDZ</t>
+  </si>
+  <si>
+    <t>Ciclopenteno </t>
+  </si>
+  <si>
+    <t>C5H8</t>
+  </si>
+  <si>
+    <t>2,2-difl.propano </t>
+  </si>
+  <si>
+    <t>C3H6F2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Acetileno </t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>valor muito baixo</t>
+  </si>
+  <si>
+    <t>Dimetilcarbonato </t>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+  </si>
+  <si>
+    <t>Ciclohexano </t>
+  </si>
+  <si>
+    <t>C6H12</t>
+  </si>
+  <si>
+    <t>Etano </t>
+  </si>
+  <si>
+    <t>C2H6</t>
+  </si>
+  <si>
+    <t>Ciclohexeno </t>
+  </si>
+  <si>
+    <t>C6H10</t>
+  </si>
+  <si>
+    <t>B3LYPultrafine/aug-cc-pVTZ</t>
+  </si>
+  <si>
+    <t>Tolueno </t>
+  </si>
+  <si>
+    <t>C6H5CH3</t>
+  </si>
+  <si>
+    <t>Furan </t>
+  </si>
+  <si>
+    <t>C4H4O</t>
+  </si>
+  <si>
+    <t>Phenylacetylene </t>
+  </si>
+  <si>
+    <t>C8H6</t>
+  </si>
+  <si>
+    <t>Dimetoximethano </t>
+  </si>
+  <si>
+    <t>C3H8O2</t>
+  </si>
+  <si>
+    <t>Tricloroetileno </t>
+  </si>
+  <si>
+    <t>C2HCl3</t>
+  </si>
+  <si>
+    <t>Bromofórmio</t>
+  </si>
+  <si>
+    <t>CHBr3</t>
+  </si>
+  <si>
+    <t>Clorofórmio </t>
+  </si>
+  <si>
+    <t>CH3Cl3</t>
+  </si>
+  <si>
     <t>1,1-dicloroetileno/Vinilideno</t>
   </si>
   <si>
     <t>C2H2Cl2</t>
   </si>
   <si>
-    <t>B3LYP/aug-cc-pVDZ</t>
+    <t>1,2-trans-dicloroetileno </t>
+  </si>
+  <si>
+    <t>Ciclopropano </t>
+  </si>
+  <si>
+    <t>C3H6</t>
+  </si>
+  <si>
+    <t>Etanol </t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>Aniline </t>
+  </si>
+  <si>
+    <t>C6H5NH2</t>
+  </si>
+  <si>
+    <t>1-Propanol </t>
+  </si>
+  <si>
+    <t>C3H8O</t>
+  </si>
+  <si>
+    <t>1-fl-butano </t>
+  </si>
+  <si>
+    <t>C4H9F</t>
+  </si>
+  <si>
+    <t>Propano </t>
+  </si>
+  <si>
+    <t>C3H8</t>
+  </si>
+  <si>
+    <t>2-Propanol </t>
+  </si>
+  <si>
+    <t>Diclorometano </t>
+  </si>
+  <si>
+    <t>CH2Cl2</t>
+  </si>
+  <si>
+    <t>1-fl-hexano </t>
+  </si>
+  <si>
+    <t>C6H13F</t>
+  </si>
+  <si>
+    <t>1-Butanol </t>
+  </si>
+  <si>
+    <t>C4H10O</t>
+  </si>
+  <si>
+    <t>1,3-Dichloropropane</t>
+  </si>
+  <si>
+    <t>C3H6Cl2</t>
+  </si>
+  <si>
+    <t>Etileno </t>
+  </si>
+  <si>
+    <t>C2H4</t>
+  </si>
+  <si>
+    <t>Metanol </t>
+  </si>
+  <si>
+    <t>CH4O</t>
+  </si>
+  <si>
+    <t>1,2-Ethanediol </t>
+  </si>
+  <si>
+    <t>C2H6O2</t>
+  </si>
+  <si>
+    <t>Pyrrole </t>
+  </si>
+  <si>
+    <t>C4H5N</t>
+  </si>
+  <si>
+    <t>Butano </t>
+  </si>
+  <si>
+    <t>Ciclopentano </t>
+  </si>
+  <si>
+    <t>C5H10</t>
+  </si>
+  <si>
+    <t>Tetracloreto de carbono</t>
+  </si>
+  <si>
+    <t>CCl4</t>
+  </si>
+  <si>
+    <t>MetilBromo </t>
+  </si>
+  <si>
+    <t>CH3Br</t>
+  </si>
+  <si>
+    <t>Metyl Formate</t>
+  </si>
+  <si>
+    <t>C2H4O2</t>
+  </si>
+  <si>
+    <t>Tetracloroetileno </t>
+  </si>
+  <si>
+    <t>C2Cl4</t>
+  </si>
+  <si>
+    <t>Isopentano </t>
+  </si>
+  <si>
+    <t>C5H12</t>
+  </si>
+  <si>
+    <t>Methyl Fluoride</t>
+  </si>
+  <si>
+    <t>CH3F</t>
+  </si>
+  <si>
+    <t>Methyl Chloride</t>
+  </si>
+  <si>
+    <t>CH3Cl</t>
+  </si>
+  <si>
+    <t>Pentano </t>
   </si>
   <si>
     <t>1,2-cis-dicloroetileno </t>
   </si>
   <si>
-    <t>1,2-Ethanediol </t>
-  </si>
-  <si>
-    <t>C2H6O2</t>
-  </si>
-  <si>
-    <t>1,2-trans-dicloroetileno </t>
+    <t>Etilformato </t>
+  </si>
+  <si>
+    <t>C3H6O2</t>
+  </si>
+  <si>
+    <t>Carbondisulfide</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>Decano</t>
+  </si>
+  <si>
+    <t>C10H22</t>
+  </si>
+  <si>
+    <t>adição por PRL 108 2012 e atualizado por PRA 108 2023</t>
+  </si>
+  <si>
+    <t>1-fl-propano </t>
+  </si>
+  <si>
+    <t>C3H7F</t>
+  </si>
+  <si>
+    <t>Metilacetato </t>
+  </si>
+  <si>
+    <t>Propilformato </t>
+  </si>
+  <si>
+    <t>C4H8O2</t>
+  </si>
+  <si>
+    <t>2,3-Butanediona </t>
+  </si>
+  <si>
+    <t>C4H6O2</t>
+  </si>
+  <si>
+    <t>2,3-Dimethilbutano</t>
+  </si>
+  <si>
+    <t>C6H14</t>
+  </si>
+  <si>
+    <t>2,2-Dicloropropano</t>
+  </si>
+  <si>
+    <t>No PRA 104 2021 o dipolo informado é 2,65. No JPB 54 2021 é 2,2</t>
   </si>
   <si>
     <t>1,3-Ciclohexadieno </t>
@@ -104,22 +392,52 @@
     <t xml:space="preserve">- </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1,3-Dichloropropane</t>
-  </si>
-  <si>
-    <t>C3H6Cl2</t>
+    <t>1-fl-nonano </t>
+  </si>
+  <si>
+    <t>C9H19F</t>
+  </si>
+  <si>
+    <t>Hexano </t>
+  </si>
+  <si>
+    <t>n-Propylchloride/1-chloropropane</t>
+  </si>
+  <si>
+    <t>C3H7Cl</t>
+  </si>
+  <si>
+    <t>Etilacetato </t>
+  </si>
+  <si>
+    <t>Cicloheptano </t>
+  </si>
+  <si>
+    <t>C7H14</t>
   </si>
   <si>
     <t>1,4-Ciclohexadieno </t>
   </si>
   <si>
-    <t>1-Butanol </t>
-  </si>
-  <si>
-    <t>C4H10O</t>
+    <t>Heptano </t>
+  </si>
+  <si>
+    <t>C7H16</t>
+  </si>
+  <si>
+    <t>Isopropylcloride</t>
+  </si>
+  <si>
+    <t>Tetrabrometo de carbono</t>
+  </si>
+  <si>
+    <t>CBr4</t>
+  </si>
+  <si>
+    <t>Pyridine </t>
+  </si>
+  <si>
+    <t>C5H5N</t>
   </si>
   <si>
     <t>1-cl.hexano </t>
@@ -128,67 +446,130 @@
     <t>C6H13Cl</t>
   </si>
   <si>
-    <t>1-fl-butano </t>
-  </si>
-  <si>
-    <t>C4H9F</t>
-  </si>
-  <si>
-    <t>1-fl-hexano </t>
-  </si>
-  <si>
-    <t>C6H13F</t>
-  </si>
-  <si>
-    <t>1-fl-nonano </t>
-  </si>
-  <si>
-    <t>C9H19F</t>
-  </si>
-  <si>
-    <t>1-fl-propano </t>
-  </si>
-  <si>
-    <t>C3H7F</t>
-  </si>
-  <si>
-    <t>1-Propanol </t>
-  </si>
-  <si>
-    <t>C3H8O</t>
-  </si>
-  <si>
-    <t>2,2-Dicloropropano</t>
-  </si>
-  <si>
-    <t>No PRA 104 2021 o dipolo informado é 2,65. No JPB 54 2021 é 2,2</t>
-  </si>
-  <si>
-    <t>2,2-difl.propano </t>
-  </si>
-  <si>
-    <t>C3H6F2</t>
-  </si>
-  <si>
-    <t>2,3-Butanediona </t>
-  </si>
-  <si>
-    <t>C4H6O2</t>
-  </si>
-  <si>
-    <t>2,3-Dimethilbutano</t>
-  </si>
-  <si>
-    <t>C6H14</t>
+    <t>Butanal </t>
+  </si>
+  <si>
+    <t>C4H8O</t>
   </si>
   <si>
     <t>2-Butanona </t>
   </si>
   <si>
-    <t>C4H8O</t>
-  </si>
-  <si>
-    <t>B3LYPultrafine/aug-cc-pVTZ</t>
+    <t>Cycloheptatriene </t>
+  </si>
+  <si>
+    <t>C7H8</t>
+  </si>
+  <si>
+    <t>Acetaldeído </t>
+  </si>
+  <si>
+    <t>C2H4O</t>
+  </si>
+  <si>
+    <t>EtilAcetato2o. </t>
+  </si>
+  <si>
+    <t>Isso é confórmero? Em dúvida retirado de PRA 85 2012</t>
+  </si>
+  <si>
+    <t>Ciclooctano </t>
+  </si>
+  <si>
+    <t>C8H16</t>
+  </si>
+  <si>
+    <t>Benzeno </t>
+  </si>
+  <si>
+    <t>C6H6</t>
+  </si>
+  <si>
+    <t>Propanal </t>
+  </si>
+  <si>
+    <t>C3H6O</t>
+  </si>
+  <si>
+    <t>Octano </t>
+  </si>
+  <si>
+    <t>C8H18</t>
+  </si>
+  <si>
+    <t>Nonano </t>
+  </si>
+  <si>
+    <t>C9H20</t>
+  </si>
+  <si>
+    <t>Acetona </t>
+  </si>
+  <si>
+    <t>Acetophenone </t>
+  </si>
+  <si>
+    <t>C8H8O</t>
+  </si>
+  <si>
+    <t>B3LYPultrafine/cc-pVTZ</t>
+  </si>
+  <si>
+    <t>Cyclooctatetraene </t>
+  </si>
+  <si>
+    <t>Benzaldehyde </t>
+  </si>
+  <si>
+    <t>C7H6O</t>
+  </si>
+  <si>
+    <t>Ciclopentanona </t>
+  </si>
+  <si>
+    <t>C5H8O</t>
+  </si>
+  <si>
+    <t>Acetonitrila </t>
+  </si>
+  <si>
+    <t>C2H3N</t>
+  </si>
+  <si>
+    <t>Propionitrila </t>
+  </si>
+  <si>
+    <t>C3H5N</t>
+  </si>
+  <si>
+    <t>Pyridazine </t>
+  </si>
+  <si>
+    <t>C4H4N2</t>
+  </si>
+  <si>
+    <t>Dodecano </t>
+  </si>
+  <si>
+    <t>C12H26</t>
+  </si>
+  <si>
+    <t>Tetradecano </t>
+  </si>
+  <si>
+    <t>C14H30</t>
+  </si>
+  <si>
+    <t>Hexadecano </t>
+  </si>
+  <si>
+    <t>C16H34</t>
+  </si>
+  <si>
+    <t>Naftaleno </t>
+  </si>
+  <si>
+    <t>C10H8</t>
   </si>
   <si>
     <t>2-Metilpropionitrila </t>
@@ -197,391 +578,10 @@
     <t>C4H7N</t>
   </si>
   <si>
-    <t>2-Propanol </t>
-  </si>
-  <si>
-    <t>Acetaldeído </t>
-  </si>
-  <si>
-    <t>C2H4O</t>
-  </si>
-  <si>
-    <t>Acetileno </t>
-  </si>
-  <si>
-    <t>C2H2</t>
-  </si>
-  <si>
-    <t>valor muito baixo</t>
-  </si>
-  <si>
-    <t>Acetona </t>
-  </si>
-  <si>
-    <t>C3H6O</t>
-  </si>
-  <si>
-    <t>Acetonitrila </t>
-  </si>
-  <si>
-    <t>C2H3N</t>
-  </si>
-  <si>
-    <t>Acetophenone </t>
-  </si>
-  <si>
-    <t>C8H8O</t>
-  </si>
-  <si>
-    <t>B3LYPultrafine/cc-pVTZ</t>
-  </si>
-  <si>
-    <t>Aniline </t>
-  </si>
-  <si>
-    <t>C6H5NH2</t>
-  </si>
-  <si>
-    <t>Benzaldehyde </t>
-  </si>
-  <si>
-    <t>C7H6O</t>
-  </si>
-  <si>
-    <t>Benzeno </t>
-  </si>
-  <si>
-    <t>C6H6</t>
-  </si>
-  <si>
     <t>Benzonitrile </t>
   </si>
   <si>
     <t>C7H5N</t>
-  </si>
-  <si>
-    <t>Bromofórmio</t>
-  </si>
-  <si>
-    <t>CHBr3</t>
-  </si>
-  <si>
-    <t>Butanal </t>
-  </si>
-  <si>
-    <t>Butano </t>
-  </si>
-  <si>
-    <t>C4H10</t>
-  </si>
-  <si>
-    <t>Carbondisulfide</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>Cicloheptano </t>
-  </si>
-  <si>
-    <t>C7H14</t>
-  </si>
-  <si>
-    <t>Ciclohexano </t>
-  </si>
-  <si>
-    <t>C6H12</t>
-  </si>
-  <si>
-    <t>Ciclohexeno </t>
-  </si>
-  <si>
-    <t>C6H10</t>
-  </si>
-  <si>
-    <t>Ciclooctano </t>
-  </si>
-  <si>
-    <t>C8H16</t>
-  </si>
-  <si>
-    <t>Ciclopentano </t>
-  </si>
-  <si>
-    <t>C5H10</t>
-  </si>
-  <si>
-    <t>Ciclopentanona </t>
-  </si>
-  <si>
-    <t>C5H8O</t>
-  </si>
-  <si>
-    <t>Ciclopenteno </t>
-  </si>
-  <si>
-    <t>C5H8</t>
-  </si>
-  <si>
-    <t>Ciclopropano </t>
-  </si>
-  <si>
-    <t>C3H6</t>
-  </si>
-  <si>
-    <t>Clorofórmio </t>
-  </si>
-  <si>
-    <t>CH3Cl3</t>
-  </si>
-  <si>
-    <t>Cycloheptatriene </t>
-  </si>
-  <si>
-    <t>C7H8</t>
-  </si>
-  <si>
-    <t>Cyclooctatetraene </t>
-  </si>
-  <si>
-    <t>Decano</t>
-  </si>
-  <si>
-    <t>C10H22</t>
-  </si>
-  <si>
-    <t>adição por PRL 108 2012 e atualizado por PRA 108 2023</t>
-  </si>
-  <si>
-    <t>Diclorometano </t>
-  </si>
-  <si>
-    <t>CH2Cl2</t>
-  </si>
-  <si>
-    <t>Dimetilcarbonato </t>
-  </si>
-  <si>
-    <t>C3H6O3</t>
-  </si>
-  <si>
-    <t>Dimetoximethano </t>
-  </si>
-  <si>
-    <t>C3H8O2</t>
-  </si>
-  <si>
-    <t>Dodecano </t>
-  </si>
-  <si>
-    <t>C12H26</t>
-  </si>
-  <si>
-    <t>Etano </t>
-  </si>
-  <si>
-    <t>C2H6</t>
-  </si>
-  <si>
-    <t>Etanol </t>
-  </si>
-  <si>
-    <t>C2H6O</t>
-  </si>
-  <si>
-    <t>Etilacetato </t>
-  </si>
-  <si>
-    <t>C4H8O2</t>
-  </si>
-  <si>
-    <t>EtilAcetato2o. </t>
-  </si>
-  <si>
-    <t>Isso é confórmero? Em dúvida retirado de PRA 85 2012</t>
-  </si>
-  <si>
-    <t>Etileno </t>
-  </si>
-  <si>
-    <t>C2H4</t>
-  </si>
-  <si>
-    <t>Etilformato </t>
-  </si>
-  <si>
-    <t>C3H6O2</t>
-  </si>
-  <si>
-    <t>Furan </t>
-  </si>
-  <si>
-    <t>C4H4O</t>
-  </si>
-  <si>
-    <t>Heptano </t>
-  </si>
-  <si>
-    <t>C7H16</t>
-  </si>
-  <si>
-    <t>Hexadecano </t>
-  </si>
-  <si>
-    <t>C16H34</t>
-  </si>
-  <si>
-    <t>Hexano </t>
-  </si>
-  <si>
-    <t>Isobutane </t>
-  </si>
-  <si>
-    <t>Isopentano </t>
-  </si>
-  <si>
-    <t>C5H12</t>
-  </si>
-  <si>
-    <t>Isopropylcloride</t>
-  </si>
-  <si>
-    <t>C3H7Cl</t>
-  </si>
-  <si>
-    <t>Metanol </t>
-  </si>
-  <si>
-    <t>CH4O</t>
-  </si>
-  <si>
-    <t>Metilacetato </t>
-  </si>
-  <si>
-    <t>MetilBromo </t>
-  </si>
-  <si>
-    <t>CH3Br</t>
-  </si>
-  <si>
-    <t>Methyl Chloride</t>
-  </si>
-  <si>
-    <t>CH3Cl</t>
-  </si>
-  <si>
-    <t>Methyl Fluoride</t>
-  </si>
-  <si>
-    <t>CH3F</t>
-  </si>
-  <si>
-    <t>Metyl Formate</t>
-  </si>
-  <si>
-    <t>C2H4O2</t>
-  </si>
-  <si>
-    <t>Naftaleno </t>
-  </si>
-  <si>
-    <t>C10H8</t>
-  </si>
-  <si>
-    <t>Nonano </t>
-  </si>
-  <si>
-    <t>C9H20</t>
-  </si>
-  <si>
-    <t>n-Propylchloride/1-chloropropane</t>
-  </si>
-  <si>
-    <t>Octano </t>
-  </si>
-  <si>
-    <t>C8H18</t>
-  </si>
-  <si>
-    <t>Pentano </t>
-  </si>
-  <si>
-    <t>Phenylacetylene </t>
-  </si>
-  <si>
-    <t>C8H6</t>
-  </si>
-  <si>
-    <t>Propanal </t>
-  </si>
-  <si>
-    <t>Propano </t>
-  </si>
-  <si>
-    <t>C3H8</t>
-  </si>
-  <si>
-    <t>Propilformato </t>
-  </si>
-  <si>
-    <t>Propionitrila </t>
-  </si>
-  <si>
-    <t>C3H5N</t>
-  </si>
-  <si>
-    <t>Pyridazine </t>
-  </si>
-  <si>
-    <t>C4H4N2</t>
-  </si>
-  <si>
-    <t>Pyridine </t>
-  </si>
-  <si>
-    <t>C5H5N</t>
-  </si>
-  <si>
-    <t>Pyrrole </t>
-  </si>
-  <si>
-    <t>C4H5N</t>
-  </si>
-  <si>
-    <t>Tetrabrometo de carbono</t>
-  </si>
-  <si>
-    <t>CBr4</t>
-  </si>
-  <si>
-    <t>Tetracloreto de carbono</t>
-  </si>
-  <si>
-    <t>CCl4</t>
-  </si>
-  <si>
-    <t>Tetracloroetileno </t>
-  </si>
-  <si>
-    <t>C2Cl4</t>
-  </si>
-  <si>
-    <t>Tetradecano </t>
-  </si>
-  <si>
-    <t>C14H30</t>
-  </si>
-  <si>
-    <t>Tolueno </t>
-  </si>
-  <si>
-    <t>C6H5CH3</t>
-  </si>
-  <si>
-    <t>Tricloroetileno </t>
-  </si>
-  <si>
-    <t>C2HCl3</t>
   </si>
   <si>
     <t>1,1-DichloropropaneC3H6Cl2 </t>
@@ -1384,14 +1384,19 @@
         <filter val="98"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="6">
       <filters>
         <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M111">
-    <sortCondition ref="B1:B111"/>
+    <sortCondition ref="E1:E111"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="13" xr3:uid="{FDF98137-27B0-453E-9A08-A7CCD337690A}" name="Ord " dataDxfId="12"/>
@@ -1758,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1814,9 +1819,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" hidden="1" customHeight="1">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1">
       <c r="A2" s="38">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>13</v>
@@ -1825,603 +1830,621 @@
         <v>14</v>
       </c>
       <c r="D2" s="3">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.3</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.13200000000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>8.1</v>
+        <v>8.14</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>9.8000000000000007</v>
+        <v>10.57</v>
       </c>
       <c r="I2" s="33">
-        <v>9549</v>
+        <v>8414</v>
       </c>
       <c r="J2" s="33">
-        <v>9153</v>
+        <v>8414</v>
       </c>
       <c r="K2" s="33">
-        <v>5576</v>
+        <v>7376</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="38">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="3">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3">
-        <v>10.6</v>
+        <v>10.346</v>
       </c>
       <c r="J3" s="3">
-        <v>7.9</v>
+        <v>9.1159999999999997</v>
       </c>
       <c r="K3" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="38">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
-        <v>1.69</v>
+        <v>2.4</v>
       </c>
       <c r="F4" s="3">
-        <v>3.08</v>
+        <v>5.9</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5</v>
+        <v>11.4</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="38">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="I5" s="33">
+        <v>4792</v>
+      </c>
+      <c r="J5" s="33">
+        <v>2795</v>
+      </c>
+      <c r="K5" s="33">
+        <v>2795</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="38">
+        <v>57</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="I5" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="H6" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="K6" s="3">
         <v>6.7</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" hidden="1">
-      <c r="A6" s="38">
-        <v>65</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3">
-        <v>132</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="38">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
-        <v>2.08</v>
+        <v>0.33</v>
       </c>
       <c r="F7" s="3">
-        <v>10.08</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>10.89</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>23</v>
+        <v>9.9</v>
+      </c>
+      <c r="I7" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>9.8000000000000007</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="38">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
-        <v>116</v>
-      </c>
-      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I8" s="3">
-        <v>13.395</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10.449</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7.6559999999999997</v>
+        <v>11.5</v>
+      </c>
+      <c r="I8" s="33">
+        <v>4751</v>
+      </c>
+      <c r="J8" s="33">
+        <v>4161</v>
+      </c>
+      <c r="K8" s="33">
+        <v>4161</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" hidden="1">
+      <c r="M8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="38">
+        <v>63</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>105</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12.186999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10.737</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="38">
+        <v>119</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
+        <v>173</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11.86</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15.494999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>13.39</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="38">
+        <v>125</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I11" s="33">
+        <v>8747</v>
+      </c>
+      <c r="J11" s="33">
+        <v>7998</v>
+      </c>
+      <c r="K11" s="33">
+        <v>5194</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="38">
+        <v>122</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
-        <v>102</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8.77</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="D12" s="3">
+        <v>230</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8.82</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21.795000000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13.722</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8.2560000000000002</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="38">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <v>78</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.2990000000000004</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6.726</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="38">
+        <v>73</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" hidden="1">
-      <c r="A10" s="38">
-        <v>32</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>175</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="I14" s="3">
         <v>13.6</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J14" s="3">
         <v>10.3</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" hidden="1">
-      <c r="A11" s="38">
-        <v>29</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" hidden="1">
-      <c r="A12" s="38">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3">
-        <v>80</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" hidden="1">
-      <c r="A13" s="38">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>145</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" hidden="1">
-      <c r="A14" s="38">
-        <v>27</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
-      </c>
       <c r="K14" s="3">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="38">
-        <v>36</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>132</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3">
-        <v>1.57</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="3">
-        <v>6.7</v>
+        <v>11.3</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>10.18</v>
+        <v>10.5</v>
       </c>
       <c r="I15" s="3">
-        <v>7.9</v>
+        <v>13.2</v>
       </c>
       <c r="J15" s="3">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
       <c r="K15" s="3">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="43.5" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="38">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
-        <v>2.65</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>10.37</v>
+        <v>8.4</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="3">
+        <v>11.4</v>
+      </c>
       <c r="I16" s="3">
-        <v>11.201000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J16" s="3">
-        <v>10.069000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K16" s="3">
-        <v>9.2590000000000003</v>
-      </c>
-      <c r="L16" s="3" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="29.25">
+      <c r="A17" s="38">
+        <v>72</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I17" s="33">
+        <v>9549</v>
+      </c>
+      <c r="J17" s="33">
+        <v>9153</v>
+      </c>
+      <c r="K17" s="33">
+        <v>5576</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1">
-      <c r="A17" s="38">
-        <v>28</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="38">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2430,153 +2453,151 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I18" s="3">
-        <v>9.8000000000000007</v>
+        <v>12.5</v>
       </c>
       <c r="J18" s="3">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="K18" s="3">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="38">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>11.8</v>
+        <v>5.7</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="I19" s="3">
-        <v>12.597</v>
+        <v>5.8</v>
       </c>
       <c r="J19" s="3">
-        <v>12.074999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="K19" s="3">
-        <v>10.24</v>
-      </c>
-      <c r="L19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="38">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10.43</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="38">
+        <v>121</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3">
+        <v>233</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="I21" s="3">
+        <v>15.907</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13.195</v>
+      </c>
+      <c r="K21" s="3">
+        <v>7.601</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" hidden="1">
-      <c r="A20" s="38">
-        <v>45</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3">
-        <v>205</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>9.52</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9.3469999999999995</v>
-      </c>
-      <c r="J20" s="3">
-        <v>8.3539999999999992</v>
-      </c>
-      <c r="K20" s="3">
-        <v>6.5579999999999998</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1">
-      <c r="A21" s="38">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="38">
+        <v>36</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3">
-        <v>274</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J21" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="K21" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" hidden="1">
-      <c r="A22" s="38">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F22" s="3">
         <v>6.7</v>
@@ -2585,212 +2606,210 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>10.17</v>
+        <v>10.18</v>
       </c>
       <c r="I22" s="3">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="J22" s="3">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K22" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="38">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23" s="3">
-        <v>4.5999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="I23" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="L23" s="3"/>
+      <c r="I23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="31"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="38">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="38">
+        <v>37</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="I24" s="33">
-        <v>4792</v>
-      </c>
-      <c r="J24" s="33">
-        <v>2795</v>
-      </c>
-      <c r="K24" s="33">
-        <v>2795</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1">
-      <c r="A25" s="38">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" s="3">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3">
-        <v>2.88</v>
+        <v>1.58</v>
       </c>
       <c r="F25" s="3">
-        <v>6.41</v>
+        <v>6.7</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>9.6999999999999993</v>
+        <v>10.17</v>
       </c>
       <c r="I25" s="3">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J25" s="3">
         <v>7</v>
       </c>
       <c r="K25" s="3">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26" s="38">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="3">
-        <v>4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
       <c r="I26" s="3">
-        <v>6.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J26" s="3">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="K26" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="L26" s="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" s="38">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3">
-        <v>3.02</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F27" s="3">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I27" s="3">
-        <v>18.481000000000002</v>
-      </c>
-      <c r="J27" s="3">
-        <v>14.759</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3.3279999999999998</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="31"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="38">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>67</v>
@@ -2799,37 +2818,35 @@
         <v>68</v>
       </c>
       <c r="D28" s="3">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="F28" s="3">
-        <v>12.1</v>
+        <v>8.77</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>7.72</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3">
-        <v>15.907</v>
+        <v>10.4</v>
       </c>
       <c r="J28" s="3">
-        <v>13.195</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K28" s="3">
-        <v>7.601</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>7.7</v>
+      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="38">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>69</v>
@@ -2838,37 +2855,35 @@
         <v>70</v>
       </c>
       <c r="D29" s="3">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="E29" s="3">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="F29" s="3">
-        <v>12.8</v>
+        <v>10.08</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>17.698</v>
-      </c>
-      <c r="J29" s="3">
-        <v>13.930999999999999</v>
-      </c>
-      <c r="K29" s="3">
-        <v>7.4660000000000002</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>10.89</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="38">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>71</v>
@@ -2877,35 +2892,35 @@
         <v>72</v>
       </c>
       <c r="D30" s="3">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>9.24</v>
+        <v>10.5</v>
       </c>
       <c r="I30" s="3">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
       <c r="J30" s="3">
-        <v>12.3</v>
+        <v>3.8</v>
       </c>
       <c r="K30" s="3">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="38">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>73</v>
@@ -2914,106 +2929,106 @@
         <v>74</v>
       </c>
       <c r="D31" s="3">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="E31" s="3">
-        <v>4.5199999999999996</v>
+        <v>1.69</v>
       </c>
       <c r="F31" s="3">
-        <v>12.5</v>
+        <v>3.08</v>
       </c>
       <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="38">
+        <v>35</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="K32" s="3">
         <v>5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>9.73</v>
-      </c>
-      <c r="I31" s="3">
-        <v>18.602</v>
-      </c>
-      <c r="J31" s="3">
-        <v>13.010999999999999</v>
-      </c>
-      <c r="K31" s="3">
-        <v>7.5259999999999998</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" hidden="1">
-      <c r="A32" s="38">
-        <v>132</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="3">
-        <v>130</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F32" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="J32" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>8.6</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="38">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="F33" s="3">
-        <v>8.2799999999999994</v>
+        <v>7.9</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3">
-        <v>9.84</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I33" s="3">
-        <v>9.6</v>
+        <v>9.6029999999999998</v>
       </c>
       <c r="J33" s="3">
-        <v>8.4</v>
+        <v>9.1959999999999997</v>
       </c>
       <c r="K33" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="L33" s="3"/>
+        <v>5.8319999999999999</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
@@ -3021,10 +3036,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3">
         <v>37</v>
@@ -3055,7 +3070,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="38">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>80</v>
@@ -3064,35 +3079,37 @@
         <v>81</v>
       </c>
       <c r="D35" s="3">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="G35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="L35" s="3"/>
+        <v>10.3</v>
+      </c>
+      <c r="I35" s="33">
+        <v>9342</v>
+      </c>
+      <c r="J35" s="33">
+        <v>9336</v>
+      </c>
+      <c r="K35" s="33">
+        <v>8008</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="38">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>82</v>
@@ -3101,37 +3118,37 @@
         <v>83</v>
       </c>
       <c r="D36" s="3">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>12.8</v>
+        <v>10.5</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>9.9700000000000006</v>
+        <v>11.47</v>
       </c>
       <c r="I36" s="33">
-        <v>13380</v>
+        <v>10391</v>
       </c>
       <c r="J36" s="33">
-        <v>13088</v>
+        <v>10391</v>
       </c>
       <c r="K36" s="33">
-        <v>11203</v>
+        <v>10391</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" s="38">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>84</v>
@@ -3140,35 +3157,37 @@
         <v>85</v>
       </c>
       <c r="D37" s="3">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E37" s="3">
-        <v>0.33</v>
+        <v>1.8</v>
       </c>
       <c r="F37" s="3">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="I37" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="J37" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="K37" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L37" s="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="I37" s="33">
+        <v>6787</v>
+      </c>
+      <c r="J37" s="33">
+        <v>4642</v>
+      </c>
+      <c r="K37" s="33">
+        <v>4641</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" s="38">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>86</v>
@@ -3177,37 +3196,35 @@
         <v>87</v>
       </c>
       <c r="D38" s="3">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E38" s="3">
-        <v>0.33</v>
+        <v>1.8</v>
       </c>
       <c r="F38" s="3">
-        <v>10.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="I38" s="3">
-        <v>12.186999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J38" s="3">
-        <v>10.737</v>
+        <v>4.8</v>
       </c>
       <c r="K38" s="3">
-        <v>8.6579999999999995</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="38">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>88</v>
@@ -3216,35 +3233,35 @@
         <v>89</v>
       </c>
       <c r="D39" s="3">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="31" t="s">
-        <v>23</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I39" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="K39" s="3">
+        <v>7.8</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="38">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>90</v>
@@ -3253,13 +3270,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="3">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -3267,23 +3284,21 @@
       <c r="H40" s="3">
         <v>10.3</v>
       </c>
-      <c r="I40" s="33">
-        <v>9342</v>
-      </c>
-      <c r="J40" s="33">
-        <v>9336</v>
-      </c>
-      <c r="K40" s="33">
-        <v>8008</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="I40" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="J40" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="K40" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>92</v>
@@ -3292,35 +3307,37 @@
         <v>93</v>
       </c>
       <c r="D41" s="3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="F41" s="3">
-        <v>9</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I41" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="J41" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="K41" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" hidden="1">
+        <v>12.9</v>
+      </c>
+      <c r="I41" s="33">
+        <v>2737</v>
+      </c>
+      <c r="J41" s="33">
+        <v>2465</v>
+      </c>
+      <c r="K41" s="33">
+        <v>2465</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="38">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>94</v>
@@ -3329,28 +3346,28 @@
         <v>95</v>
       </c>
       <c r="D42" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E42" s="3">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="F42" s="3">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>9</v>
-      </c>
-      <c r="I42" s="3">
-        <v>10.346</v>
-      </c>
-      <c r="J42" s="3">
-        <v>9.1159999999999997</v>
-      </c>
-      <c r="K42" s="3">
-        <v>7.1820000000000004</v>
+        <v>11.2</v>
+      </c>
+      <c r="I42" s="33">
+        <v>5432</v>
+      </c>
+      <c r="J42" s="33">
+        <v>3803</v>
+      </c>
+      <c r="K42" s="33">
+        <v>3803</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>15</v>
@@ -3359,163 +3376,161 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="38">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="I43" s="3">
-        <v>5.8</v>
+        <v>11.7</v>
       </c>
       <c r="J43" s="3">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="K43" s="3">
-        <v>5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44" s="38">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>11.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I44" s="3">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="J44" s="3">
-        <v>9.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="K44" s="3">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45" s="38">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3">
-        <v>0.25</v>
+        <v>1.93</v>
       </c>
       <c r="F45" s="3">
-        <v>12.6</v>
+        <v>7.02</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="31"/>
+        <v>10.61</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="38">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>13.76</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G46" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
-        <v>8.43</v>
+        <v>10.1</v>
       </c>
       <c r="I46" s="3">
-        <v>16.431999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="J46" s="3">
-        <v>16.431999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="K46" s="3">
-        <v>10.369</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="29.25" hidden="1">
+    <row r="47" spans="1:13" ht="29.25">
       <c r="A47" s="38">
         <v>131</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D47" s="3">
         <v>193</v>
@@ -3543,27 +3558,27 @@
         <v>15</v>
       </c>
       <c r="M47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="38">
+        <v>27</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1">
-      <c r="A48" s="38">
-        <v>67</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="C48" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="D48" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E48" s="3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3572,385 +3587,389 @@
         <v>11.3</v>
       </c>
       <c r="I48" s="3">
-        <v>8.3000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="J48" s="3">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K48" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L48" s="25" t="s">
-        <v>15</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:15" hidden="1">
+    <row r="49" spans="1:15">
       <c r="A49" s="38">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D49" s="3">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E49" s="3">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3">
-        <v>7.7</v>
+        <v>6.96</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>10.3</v>
+        <v>10.25</v>
       </c>
       <c r="I49" s="3">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J49" s="3">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="K49" s="3">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:15" hidden="1">
+    <row r="50" spans="1:15">
       <c r="A50" s="38">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3">
-        <v>78</v>
-      </c>
-      <c r="E50" s="41">
-        <v>0.7</v>
+        <v>130</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2.4</v>
       </c>
       <c r="F50" s="3">
-        <v>7.7</v>
+        <v>8.85</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I50" s="3">
-        <v>8.6159999999999997</v>
-      </c>
-      <c r="J50" s="3">
-        <v>7.2990000000000004</v>
-      </c>
-      <c r="K50" s="3">
-        <v>6.726</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>10.52</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="31"/>
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="38">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="3">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="3">
-        <v>22.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I51" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="31"/>
+      <c r="J51" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="K51" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="38">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="3">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4">
+        <v>93</v>
+      </c>
+      <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>4.4000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="I52" s="33">
-        <v>4751</v>
-      </c>
-      <c r="J52" s="33">
-        <v>4161</v>
-      </c>
-      <c r="K52" s="33">
-        <v>4161</v>
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
+        <v>12.597</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12.074999999999999</v>
+      </c>
+      <c r="K52" s="3">
+        <v>10.24</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="43.5">
       <c r="A53" s="38">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="3">
+        <v>131</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="F53" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="30"/>
+      <c r="I53" s="3">
+        <v>11.201000000000001</v>
+      </c>
+      <c r="J53" s="3">
+        <v>10.069000000000001</v>
+      </c>
+      <c r="K53" s="3">
+        <v>9.2590000000000003</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="38">
+        <v>65</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="3">
-        <v>43</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="G53" s="3">
-        <v>5</v>
-      </c>
-      <c r="H53" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I53" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" hidden="1">
-      <c r="A54" s="38">
-        <v>51</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="D54" s="3">
+        <v>132</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I54" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="J54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="38">
+        <v>31</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="3">
-        <v>190</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10.01</v>
-      </c>
-      <c r="I54" s="3">
-        <v>10.768000000000001</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8.8559999999999999</v>
-      </c>
-      <c r="K54" s="3">
-        <v>7.0739999999999998</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" ht="29.25" hidden="1">
-      <c r="A55" s="39">
-        <v>52</v>
-      </c>
-      <c r="B55" s="29" t="s">
+      <c r="C55" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28">
-        <v>195</v>
-      </c>
-      <c r="E55" s="28">
-        <v>2.1</v>
-      </c>
-      <c r="F55" s="28">
-        <v>8.6</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="D55" s="3">
+        <v>145</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F55" s="3">
+        <v>17</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D56" s="3">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>4.2</v>
+        <v>11.8</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="I56" s="3">
-        <v>5.4</v>
+        <v>14.3</v>
       </c>
       <c r="J56" s="3">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="K56" s="3">
-        <v>3.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:15" hidden="1">
+    <row r="57" spans="1:15" ht="29.25">
       <c r="A57" s="38">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="3">
-        <v>1.93</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F57" s="3">
-        <v>7.02</v>
+        <v>8.24</v>
       </c>
       <c r="G57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>10.61</v>
+        <v>10.81</v>
       </c>
       <c r="I57" s="3">
-        <v>8.6999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="J57" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="K57" s="3">
         <v>6.9</v>
       </c>
-      <c r="K57" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="L57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" hidden="1">
+    <row r="58" spans="1:15">
       <c r="A58" s="38">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D58" s="3">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="E58" s="3">
-        <v>0.66</v>
+        <v>2.13</v>
       </c>
       <c r="F58" s="3">
-        <v>7.23</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="I58" s="33">
-        <v>8747</v>
-      </c>
-      <c r="J58" s="33">
-        <v>7998</v>
-      </c>
-      <c r="K58" s="33">
-        <v>5194</v>
+        <v>10.01</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10.768000000000001</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="K58" s="3">
+        <v>7.0739999999999998</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>15</v>
@@ -3959,567 +3978,557 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="38">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D59" s="3">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="I59" s="3">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="J59" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="K59" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="L59" s="3"/>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I59" s="33">
+        <v>13380</v>
+      </c>
+      <c r="J59" s="33">
+        <v>13088</v>
+      </c>
+      <c r="K59" s="33">
+        <v>11203</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="38">
+        <v>64</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="3">
+        <v>116</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>11</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="3">
-        <v>295</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>30.3</v>
-      </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L60" s="31"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I60" s="3">
+        <v>13.395</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10.449</v>
+      </c>
+      <c r="K60" s="3">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="D61" s="3">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>11.8</v>
+        <v>13.7</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I61" s="3">
-        <v>14.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J61" s="3">
-        <v>11</v>
+        <v>12.7</v>
       </c>
       <c r="K61" s="3">
-        <v>10.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:15" hidden="1">
+    <row r="62" spans="1:15">
       <c r="A62" s="38">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B62" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="3">
+        <v>113</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8.36</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10.79</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="28.5">
+      <c r="A63" s="38">
         <v>133</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="3">
-        <v>41</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10.57</v>
-      </c>
-      <c r="I62" s="33">
-        <v>8414</v>
-      </c>
-      <c r="J62" s="33">
-        <v>8414</v>
-      </c>
-      <c r="K62" s="33">
-        <v>7376</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="B63" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3">
+        <v>125</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>10.31</v>
+      </c>
+      <c r="I63" s="33">
+        <v>14771</v>
+      </c>
+      <c r="J63" s="33">
+        <v>14771</v>
+      </c>
+      <c r="K63" s="33">
+        <v>14771</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="38">
-        <v>16</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="38">
+        <v>127</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D64" s="3">
+        <v>186</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="F64" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>3</v>
+      </c>
+      <c r="H64" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="I64" s="3">
+        <v>11.69</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10.98</v>
+      </c>
+      <c r="K64" s="3">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="38">
+        <v>32</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="3">
-        <v>65</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="C65" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="3">
+        <v>175</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>10.3</v>
       </c>
-      <c r="I63" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="J63" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="K63" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" hidden="1">
-      <c r="A64" s="38">
-        <v>94</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="I65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="38">
+        <v>42</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="3">
-        <v>113</v>
-      </c>
-      <c r="E64" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F64" s="3">
-        <v>8.36</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>10.79</v>
-      </c>
-      <c r="I64" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="J64" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="K64" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" hidden="1">
-      <c r="A65" s="38">
-        <v>22</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="3">
-        <v>20</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1.69</v>
-      </c>
-      <c r="F65" s="3">
-        <v>3.08</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="I65" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J65" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="K65" s="3">
-        <v>3</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" hidden="1">
-      <c r="A66" s="38">
-        <v>50</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="D66" s="3">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E66" s="3">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="F66" s="3">
-        <v>6.96</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>10.25</v>
+        <v>9.84</v>
       </c>
       <c r="I66" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="J66" s="3">
         <v>8.4</v>
       </c>
-      <c r="J66" s="3">
-        <v>7.1</v>
-      </c>
       <c r="K66" s="3">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67" s="38">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="3">
+        <v>205</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="F67" s="3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="I67" s="3">
+        <v>9.3469999999999995</v>
+      </c>
+      <c r="J67" s="3">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="K67" s="3">
+        <v>6.5579999999999998</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="38">
+        <v>129</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="D68" s="3">
+        <v>190</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F68" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="31"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="38">
+        <v>39</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="3">
-        <v>40</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="C69" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="3">
+        <v>88</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I69" s="3">
         <v>5.6</v>
       </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="I67" s="33">
-        <v>6787</v>
-      </c>
-      <c r="J67" s="33">
-        <v>4642</v>
-      </c>
-      <c r="K67" s="33">
-        <v>4641</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" hidden="1">
-      <c r="A68" s="38">
-        <v>25</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="J69" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13" ht="29.25" hidden="1">
+      <c r="A70" s="39">
+        <v>52</v>
+      </c>
+      <c r="B70" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="3">
-        <v>25</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="F68" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="I68" s="33">
-        <v>5432</v>
-      </c>
-      <c r="J68" s="33">
-        <v>3803</v>
-      </c>
-      <c r="K68" s="33">
-        <v>3803</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" hidden="1">
-      <c r="A69" s="38">
-        <v>24</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="28">
+        <v>195</v>
+      </c>
+      <c r="E70" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F70" s="28">
+        <v>8.6</v>
+      </c>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="I69" s="33">
-        <v>2737</v>
-      </c>
-      <c r="J69" s="33">
-        <v>2465</v>
-      </c>
-      <c r="K69" s="33">
-        <v>2465</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1">
-      <c r="A70" s="38">
-        <v>47</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="3">
-        <v>65</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="F70" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="I70" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="J70" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="K70" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="38">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>16.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="G71" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I71" s="3">
-        <v>25.7</v>
-      </c>
-      <c r="J71" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="K71" s="3">
-        <v>9.8000000000000007</v>
+        <v>9.75</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="38">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72" s="3">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>17.399999999999999</v>
+        <v>10</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>9.6999999999999993</v>
+        <v>9.24</v>
       </c>
       <c r="I72" s="3">
-        <v>21.3</v>
+        <v>12.3</v>
       </c>
       <c r="J72" s="3">
-        <v>14.9</v>
+        <v>12.3</v>
       </c>
       <c r="K72" s="3">
-        <v>14</v>
+        <v>6.7</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="29.25" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" s="38">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E73" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="F73" s="3">
-        <v>8.24</v>
+        <v>6.2</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>10.81</v>
+        <v>10</v>
       </c>
       <c r="I73" s="3">
-        <v>10.3</v>
+        <v>7</v>
       </c>
       <c r="J73" s="3">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="K73" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13">
@@ -4527,10 +4536,10 @@
         <v>7</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="3">
         <v>147</v>
@@ -4561,194 +4570,198 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D75" s="3">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>10</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>10.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I75" s="3">
-        <v>11.7</v>
+        <v>21.3</v>
       </c>
       <c r="J75" s="3">
-        <v>9.4</v>
+        <v>14.9</v>
       </c>
       <c r="K75" s="3">
-        <v>8.6999999999999993</v>
+        <v>14</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="38">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="3">
+        <v>170</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6.41</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7</v>
+      </c>
+      <c r="K76" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="38">
+        <v>120</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="3">
-        <v>230</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="F76" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8.82</v>
-      </c>
-      <c r="I76" s="3">
-        <v>21.795000000000002</v>
-      </c>
-      <c r="J76" s="3">
-        <v>13.722</v>
-      </c>
-      <c r="K76" s="3">
-        <v>8.2560000000000002</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" hidden="1">
-      <c r="A77" s="38">
-        <v>41</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="D77" s="3">
+        <v>288</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="F77" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>4</v>
+      </c>
+      <c r="H77" s="3">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I77" s="3">
+        <v>18.481000000000002</v>
+      </c>
+      <c r="J77" s="3">
+        <v>14.759</v>
+      </c>
+      <c r="K77" s="3">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="3">
-        <v>115</v>
-      </c>
-      <c r="E77" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F77" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3">
-        <v>10</v>
-      </c>
-      <c r="I77" s="3">
-        <v>7</v>
-      </c>
-      <c r="J77" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="K77" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="38">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="3">
+        <v>225</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>13.76</v>
+      </c>
+      <c r="G78" s="3">
+        <v>4</v>
+      </c>
+      <c r="H78" s="3">
+        <v>8.43</v>
+      </c>
+      <c r="I78" s="3">
+        <v>16.431999999999999</v>
+      </c>
+      <c r="J78" s="3">
+        <v>16.431999999999999</v>
+      </c>
+      <c r="K78" s="3">
+        <v>10.369</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="38">
+        <v>124</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="3">
-        <v>16</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="I78" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="J78" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="K78" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" hidden="1">
-      <c r="A79" s="38">
-        <v>49</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" s="3">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E79" s="3">
-        <v>2.4</v>
+        <v>3.14</v>
       </c>
       <c r="F79" s="3">
-        <v>8.85</v>
+        <v>12.8</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" s="31"/>
+        <v>9.5</v>
+      </c>
+      <c r="I79" s="3">
+        <v>17.698</v>
+      </c>
+      <c r="J79" s="3">
+        <v>13.930999999999999</v>
+      </c>
+      <c r="K79" s="3">
+        <v>7.4660000000000002</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" s="38">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>163</v>
@@ -4757,35 +4770,35 @@
         <v>164</v>
       </c>
       <c r="D80" s="3">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E80" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="F80" s="3">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="G80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3">
-        <v>11.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I80" s="3">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="J80" s="3">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="K80" s="3">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:14" hidden="1">
+    <row r="81" spans="1:14">
       <c r="A81" s="38">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>165</v>
@@ -4794,37 +4807,35 @@
         <v>166</v>
       </c>
       <c r="D81" s="3">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="E81" s="3">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="F81" s="3">
-        <v>9.27</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" s="3">
-        <v>8.74</v>
+        <v>12.2</v>
       </c>
       <c r="I81" s="3">
-        <v>10.734999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="J81" s="3">
-        <v>10.151999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="K81" s="3">
-        <v>5.5789999999999997</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:14" hidden="1">
+    <row r="82" spans="1:14">
       <c r="A82" s="38">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>167</v>
@@ -4833,37 +4844,35 @@
         <v>168</v>
       </c>
       <c r="D82" s="3">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="E82" s="3">
-        <v>2.19</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F82" s="3">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="G82" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" s="3">
-        <v>9.26</v>
+        <v>11.8</v>
       </c>
       <c r="I82" s="3">
-        <v>11.69</v>
+        <v>8.1</v>
       </c>
       <c r="J82" s="3">
-        <v>10.98</v>
+        <v>5.6</v>
       </c>
       <c r="K82" s="3">
-        <v>6.0670000000000002</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:14" hidden="1">
+    <row r="83" spans="1:14">
       <c r="A83" s="38">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>169</v>
@@ -4872,28 +4881,28 @@
         <v>170</v>
       </c>
       <c r="D83" s="3">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="E83" s="3">
-        <v>1.77</v>
+        <v>4.22</v>
       </c>
       <c r="F83" s="3">
-        <v>7.9</v>
+        <v>9.27</v>
       </c>
       <c r="G83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.74</v>
       </c>
       <c r="I83" s="3">
-        <v>9.6029999999999998</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="J83" s="3">
-        <v>9.1959999999999997</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="K83" s="3">
-        <v>5.8319999999999999</v>
+        <v>5.5789999999999997</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>15</v>
@@ -4901,48 +4910,46 @@
       <c r="M83" s="3"/>
       <c r="N83" s="34"/>
     </row>
-    <row r="84" spans="1:14" ht="28.5">
+    <row r="84" spans="1:14">
       <c r="A84" s="38">
-        <v>133</v>
-      </c>
-      <c r="B84" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D84" s="3">
-        <v>125</v>
-      </c>
-      <c r="E84" s="4">
+        <v>225</v>
+      </c>
+      <c r="E84" s="3">
         <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>15.3</v>
+        <v>22.8</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="I84" s="33">
-        <v>14771</v>
-      </c>
-      <c r="J84" s="33">
-        <v>14771</v>
-      </c>
-      <c r="K84" s="33">
-        <v>14771</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="31"/>
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="38">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>173</v>
@@ -4951,37 +4958,35 @@
         <v>174</v>
       </c>
       <c r="D85" s="3">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="E85" s="3">
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>10.5</v>
+        <v>26.6</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
       </c>
       <c r="H85" s="3">
-        <v>11.47</v>
-      </c>
-      <c r="I85" s="33">
-        <v>10391</v>
-      </c>
-      <c r="J85" s="33">
-        <v>10391</v>
-      </c>
-      <c r="K85" s="33">
-        <v>10391</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>9.9</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="31"/>
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="38">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>175</v>
@@ -4990,35 +4995,35 @@
         <v>176</v>
       </c>
       <c r="D86" s="3">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
       </c>
       <c r="F86" s="3">
-        <v>12</v>
+        <v>30.3</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I86" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="J86" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="K86" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="L86" s="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="31"/>
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="38">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>177</v>
@@ -5027,35 +5032,35 @@
         <v>178</v>
       </c>
       <c r="D87" s="3">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>26.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L87" s="31"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I87" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="J87" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="K87" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:14" hidden="1">
+    <row r="88" spans="1:14">
       <c r="A88" s="38">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>179</v>
@@ -5064,37 +5069,35 @@
         <v>180</v>
       </c>
       <c r="D88" s="3">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="E88" s="3">
-        <v>0.38</v>
+        <v>4.3</v>
       </c>
       <c r="F88" s="3">
-        <v>11.86</v>
+        <v>8.1</v>
       </c>
       <c r="G88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" s="3">
-        <v>8.83</v>
+        <v>11.3</v>
       </c>
       <c r="I88" s="3">
-        <v>15.494999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J88" s="3">
-        <v>13.39</v>
+        <v>7.8</v>
       </c>
       <c r="K88" s="3">
-        <v>8.0030000000000001</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:14" hidden="1">
+    <row r="89" spans="1:14">
       <c r="A89" s="38">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>181</v>
@@ -5103,30 +5106,32 @@
         <v>182</v>
       </c>
       <c r="D89" s="3">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="E89" s="3">
-        <v>0.8</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F89" s="3">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>9.5</v>
+        <v>9.73</v>
       </c>
       <c r="I89" s="3">
-        <v>13.6</v>
+        <v>18.602</v>
       </c>
       <c r="J89" s="3">
-        <v>10.3</v>
+        <v>13.010999999999999</v>
       </c>
       <c r="K89" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="L89" s="3"/>
+        <v>7.5259999999999998</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="29.25" hidden="1">
@@ -5808,7 +5813,7 @@
     </row>
     <row r="12" spans="1:14" ht="29.25">
       <c r="D12" s="26" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E12" s="25">
         <v>82</v>
@@ -5823,7 +5828,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="D13" s="13" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="D14" s="13" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>43</v>
@@ -5972,7 +5977,7 @@
         <v>230</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="G19" s="25">
         <v>26</v>
@@ -6007,7 +6012,7 @@
         <v>231</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3">
         <v>26</v>
